--- a/Degraders_list_v2_(copy).xlsx
+++ b/Degraders_list_v2_(copy).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16141" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16107" uniqueCount="1936">
   <si>
     <t xml:space="preserve">Microorganism</t>
   </si>
@@ -5605,9 +5605,6 @@
     <t xml:space="preserve">Svalbard</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacillus pumilis</t>
-  </si>
-  <si>
     <t xml:space="preserve">PBS (Bionolle 1020MD)</t>
   </si>
   <si>
@@ -5729,12 +5726,6 @@
   </si>
   <si>
     <t xml:space="preserve">Emulsified plastic agar plates;TOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streptomyces thermohygroscopicus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streptomyces thermoolivaceous</t>
   </si>
   <si>
     <t xml:space="preserve">Streptomyces thermovulgaris</t>
@@ -5925,7 +5916,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5955,14 +5946,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6003,10 +5986,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1046"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P976" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q877" activeCellId="0" sqref="Q877"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1018" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1022" activeCellId="0" sqref="A1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6581,7 +6564,7 @@
       <c r="J10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L10" s="7"/>
@@ -6591,10 +6574,10 @@
       <c r="N10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
@@ -6638,7 +6621,7 @@
       <c r="J11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="7"/>
@@ -6648,10 +6631,10 @@
       <c r="N11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
@@ -8274,7 +8257,7 @@
       <c r="N39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
@@ -8333,7 +8316,7 @@
       <c r="N40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P40" s="7" t="s">
@@ -8392,7 +8375,7 @@
       <c r="N41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="9" t="s">
+      <c r="O41" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P41" s="7" t="s">
@@ -8451,7 +8434,7 @@
       <c r="N42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="O42" s="4" t="s">
         <v>57</v>
       </c>
       <c r="P42" s="7" t="s">
@@ -8734,7 +8717,7 @@
       <c r="J47" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="L47" s="7" t="s">
@@ -8749,7 +8732,7 @@
       <c r="O47" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="P47" s="4" t="s">
         <v>182</v>
       </c>
       <c r="Q47" s="7" t="s">
@@ -9423,7 +9406,7 @@
       <c r="I59" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K59" s="7" t="s">
@@ -9435,7 +9418,7 @@
       <c r="M59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O59" s="7" t="s">
@@ -9482,7 +9465,7 @@
       <c r="I60" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K60" s="7" t="s">
@@ -9494,7 +9477,7 @@
       <c r="M60" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O60" s="7" t="s">
@@ -9541,7 +9524,7 @@
       <c r="I61" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K61" s="7" t="s">
@@ -9553,7 +9536,7 @@
       <c r="M61" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O61" s="7" t="s">
@@ -9600,7 +9583,7 @@
       <c r="I62" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K62" s="7" t="s">
@@ -9612,7 +9595,7 @@
       <c r="M62" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O62" s="7" t="s">
@@ -9659,7 +9642,7 @@
       <c r="I63" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K63" s="7" t="s">
@@ -9671,7 +9654,7 @@
       <c r="M63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O63" s="7" t="s">
@@ -9718,7 +9701,7 @@
       <c r="I64" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K64" s="7" t="s">
@@ -9730,7 +9713,7 @@
       <c r="M64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O64" s="7" t="s">
@@ -9777,7 +9760,7 @@
       <c r="I65" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="4" t="s">
         <v>206</v>
       </c>
       <c r="K65" s="7" t="s">
@@ -9789,7 +9772,7 @@
       <c r="M65" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O65" s="7" t="s">
@@ -10969,7 +10952,7 @@
       <c r="M85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N85" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O85" s="7" t="s">
@@ -11028,7 +11011,7 @@
       <c r="M86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O86" s="7" t="s">
@@ -11087,7 +11070,7 @@
       <c r="M87" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O87" s="7" t="s">
@@ -12248,18 +12231,18 @@
       <c r="I108" s="4" t="n">
         <v>2001</v>
       </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S108" s="10" t="s">
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S108" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -13083,7 +13066,7 @@
       <c r="O123" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P123" s="9" t="s">
+      <c r="P123" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q123" s="7" t="s">
@@ -13403,7 +13386,7 @@
       <c r="I129" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="4" t="s">
         <v>349</v>
       </c>
       <c r="K129" s="7" t="s">
@@ -13693,7 +13676,7 @@
       <c r="I135" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J135" s="9" t="s">
+      <c r="J135" s="4" t="s">
         <v>362</v>
       </c>
       <c r="K135" s="7" t="s">
@@ -13705,7 +13688,7 @@
       <c r="M135" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N135" s="9" t="s">
+      <c r="N135" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O135" s="7" t="s">
@@ -14106,34 +14089,34 @@
       <c r="I142" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="J142" s="10" t="s">
+      <c r="J142" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K142" s="10" t="s">
+      <c r="K142" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="L142" s="10" t="s">
+      <c r="L142" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="M142" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N142" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O142" s="10" t="s">
+      <c r="M142" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O142" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="P142" s="10" t="s">
+      <c r="P142" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q142" s="10" t="s">
+      <c r="Q142" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="R142" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S142" s="10" t="s">
+      <c r="R142" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S142" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -14251,7 +14234,7 @@
       <c r="I145" s="4" t="n">
         <v>1999</v>
       </c>
-      <c r="J145" s="9" t="s">
+      <c r="J145" s="4" t="s">
         <v>401</v>
       </c>
       <c r="K145" s="7" t="s">
@@ -14328,7 +14311,7 @@
       <c r="O146" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P146" s="9" t="s">
+      <c r="P146" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q146" s="7" t="s">
@@ -15372,7 +15355,7 @@
       <c r="I164" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="J164" s="9" t="s">
+      <c r="J164" s="4" t="s">
         <v>453</v>
       </c>
       <c r="K164" s="7" t="s">
@@ -15653,34 +15636,34 @@
       <c r="I169" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="J169" s="10" t="s">
+      <c r="J169" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K169" s="10" t="s">
+      <c r="K169" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="L169" s="10" t="s">
+      <c r="L169" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="M169" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N169" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O169" s="10" t="s">
+      <c r="M169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O169" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="P169" s="10" t="s">
+      <c r="P169" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q169" s="10" t="s">
+      <c r="Q169" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="R169" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S169" s="10" t="s">
+      <c r="R169" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S169" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -15934,7 +15917,7 @@
       <c r="O174" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P174" s="9" t="s">
+      <c r="P174" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q174" s="7" t="s">
@@ -16099,7 +16082,7 @@
       <c r="K177" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L177" s="9" t="s">
+      <c r="L177" s="4" t="s">
         <v>484</v>
       </c>
       <c r="M177" s="7" t="s">
@@ -16158,7 +16141,7 @@
       <c r="K178" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L178" s="9" t="s">
+      <c r="L178" s="4" t="s">
         <v>484</v>
       </c>
       <c r="M178" s="7" t="s">
@@ -16667,7 +16650,7 @@
       <c r="I187" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="J187" s="9" t="s">
+      <c r="J187" s="4" t="s">
         <v>453</v>
       </c>
       <c r="K187" s="7" t="s">
@@ -17483,34 +17466,34 @@
       <c r="I201" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J201" s="10" t="s">
+      <c r="J201" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K201" s="10" t="s">
+      <c r="K201" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L201" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M201" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N201" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O201" s="10" t="s">
+      <c r="L201" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M201" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N201" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O201" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P201" s="10" t="s">
+      <c r="P201" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q201" s="10" t="s">
+      <c r="Q201" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R201" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S201" s="10" t="s">
+      <c r="R201" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S201" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17542,34 +17525,34 @@
       <c r="I202" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J202" s="10" t="s">
+      <c r="J202" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K202" s="10" t="s">
+      <c r="K202" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L202" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M202" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N202" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O202" s="10" t="s">
+      <c r="L202" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M202" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N202" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O202" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P202" s="10" t="s">
+      <c r="P202" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q202" s="10" t="s">
+      <c r="Q202" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R202" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S202" s="10" t="s">
+      <c r="R202" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S202" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17601,34 +17584,34 @@
       <c r="I203" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J203" s="10" t="s">
+      <c r="J203" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K203" s="10" t="s">
+      <c r="K203" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L203" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M203" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N203" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O203" s="10" t="s">
+      <c r="L203" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N203" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O203" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P203" s="10" t="s">
+      <c r="P203" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q203" s="10" t="s">
+      <c r="Q203" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R203" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S203" s="10" t="s">
+      <c r="R203" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S203" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17660,34 +17643,34 @@
       <c r="I204" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J204" s="10" t="s">
+      <c r="J204" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K204" s="10" t="s">
+      <c r="K204" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L204" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M204" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N204" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O204" s="10" t="s">
+      <c r="L204" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M204" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N204" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O204" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P204" s="10" t="s">
+      <c r="P204" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q204" s="10" t="s">
+      <c r="Q204" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R204" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S204" s="10" t="s">
+      <c r="R204" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S204" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17719,34 +17702,34 @@
       <c r="I205" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J205" s="10" t="s">
+      <c r="J205" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K205" s="10" t="s">
+      <c r="K205" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L205" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M205" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N205" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O205" s="10" t="s">
+      <c r="L205" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O205" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P205" s="10" t="s">
+      <c r="P205" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q205" s="10" t="s">
+      <c r="Q205" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R205" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S205" s="10" t="s">
+      <c r="R205" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S205" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17778,34 +17761,34 @@
       <c r="I206" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J206" s="10" t="s">
+      <c r="J206" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K206" s="10" t="s">
+      <c r="K206" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L206" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M206" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N206" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O206" s="10" t="s">
+      <c r="L206" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M206" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O206" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P206" s="10" t="s">
+      <c r="P206" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q206" s="10" t="s">
+      <c r="Q206" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R206" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S206" s="10" t="s">
+      <c r="R206" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S206" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17837,34 +17820,34 @@
       <c r="I207" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J207" s="10" t="s">
+      <c r="J207" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K207" s="10" t="s">
+      <c r="K207" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L207" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M207" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N207" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O207" s="10" t="s">
+      <c r="L207" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O207" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P207" s="10" t="s">
+      <c r="P207" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q207" s="10" t="s">
+      <c r="Q207" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R207" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S207" s="10" t="s">
+      <c r="R207" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S207" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17896,34 +17879,34 @@
       <c r="I208" s="4" t="n">
         <v>1983</v>
       </c>
-      <c r="J208" s="10" t="s">
+      <c r="J208" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K208" s="10" t="s">
+      <c r="K208" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L208" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M208" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N208" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O208" s="10" t="s">
+      <c r="L208" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M208" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N208" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O208" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P208" s="10" t="s">
+      <c r="P208" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q208" s="10" t="s">
+      <c r="Q208" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R208" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S208" s="10" t="s">
+      <c r="R208" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S208" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17955,34 +17938,34 @@
       <c r="I209" s="4" t="n">
         <v>1983</v>
       </c>
-      <c r="J209" s="10" t="s">
+      <c r="J209" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="K209" s="10" t="s">
+      <c r="K209" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="L209" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M209" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N209" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O209" s="10" t="s">
+      <c r="L209" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O209" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="P209" s="10" t="s">
+      <c r="P209" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q209" s="10" t="s">
+      <c r="Q209" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="R209" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S209" s="10" t="s">
+      <c r="R209" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S209" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18014,32 +17997,32 @@
       <c r="I210" s="4" t="n">
         <v>1983</v>
       </c>
-      <c r="J210" s="10" t="s">
+      <c r="J210" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K210" s="10" t="s">
+      <c r="K210" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="L210" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O210" s="10" t="s">
+      <c r="L210" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M210" s="8"/>
+      <c r="N210" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O210" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P210" s="11" t="s">
+      <c r="P210" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q210" s="10" t="s">
+      <c r="Q210" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="R210" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S210" s="10" t="s">
+      <c r="R210" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S210" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19565,7 +19548,7 @@
       <c r="I241" s="4" t="n">
         <v>1988</v>
       </c>
-      <c r="J241" s="9" t="s">
+      <c r="J241" s="4" t="s">
         <v>349</v>
       </c>
       <c r="K241" s="7" t="s">
@@ -21888,7 +21871,7 @@
       <c r="I282" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J282" s="9" t="s">
+      <c r="J282" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K282" s="7" t="s">
@@ -21947,7 +21930,7 @@
       <c r="I283" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J283" s="9" t="s">
+      <c r="J283" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K283" s="7" t="s">
@@ -22006,7 +21989,7 @@
       <c r="I284" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J284" s="9" t="s">
+      <c r="J284" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K284" s="7" t="s">
@@ -22065,7 +22048,7 @@
       <c r="I285" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J285" s="9" t="s">
+      <c r="J285" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K285" s="7" t="s">
@@ -22124,7 +22107,7 @@
       <c r="I286" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J286" s="9" t="s">
+      <c r="J286" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K286" s="7" t="s">
@@ -22183,7 +22166,7 @@
       <c r="I287" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J287" s="9" t="s">
+      <c r="J287" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K287" s="7" t="s">
@@ -22242,7 +22225,7 @@
       <c r="I288" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J288" s="9" t="s">
+      <c r="J288" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K288" s="7" t="s">
@@ -22301,7 +22284,7 @@
       <c r="I289" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J289" s="9" t="s">
+      <c r="J289" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K289" s="7" t="s">
@@ -22360,7 +22343,7 @@
       <c r="I290" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J290" s="9" t="s">
+      <c r="J290" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K290" s="7" t="s">
@@ -22419,7 +22402,7 @@
       <c r="I291" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J291" s="9" t="s">
+      <c r="J291" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K291" s="7" t="s">
@@ -22478,7 +22461,7 @@
       <c r="I292" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J292" s="9" t="s">
+      <c r="J292" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K292" s="7" t="s">
@@ -22537,7 +22520,7 @@
       <c r="I293" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="J293" s="9" t="s">
+      <c r="J293" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K293" s="7" t="s">
@@ -22596,7 +22579,7 @@
       <c r="I294" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="J294" s="9" t="s">
+      <c r="J294" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K294" s="7" t="s">
@@ -22676,7 +22659,7 @@
       <c r="P295" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="Q295" s="12" t="s">
+      <c r="Q295" s="10" t="s">
         <v>299</v>
       </c>
       <c r="R295" s="7" t="s">
@@ -25094,34 +25077,34 @@
       <c r="I342" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J342" s="10" t="s">
+      <c r="J342" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="K342" s="10" t="s">
+      <c r="K342" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="L342" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M342" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N342" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O342" s="10" t="s">
+      <c r="L342" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M342" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N342" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O342" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P342" s="10" t="s">
+      <c r="P342" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="Q342" s="10" t="s">
+      <c r="Q342" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="R342" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S342" s="10" t="s">
+      <c r="R342" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S342" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -25153,34 +25136,34 @@
       <c r="I343" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="J343" s="10" t="s">
+      <c r="J343" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="K343" s="10" t="s">
+      <c r="K343" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="L343" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M343" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N343" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O343" s="10" t="s">
+      <c r="L343" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M343" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N343" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O343" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P343" s="10" t="s">
+      <c r="P343" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="Q343" s="10" t="s">
+      <c r="Q343" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="R343" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S343" s="10" t="s">
+      <c r="R343" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S343" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -25212,34 +25195,34 @@
       <c r="I344" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="J344" s="10" t="s">
+      <c r="J344" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="K344" s="10" t="s">
+      <c r="K344" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="L344" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M344" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N344" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O344" s="10" t="s">
+      <c r="L344" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M344" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N344" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O344" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P344" s="10" t="s">
+      <c r="P344" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="Q344" s="10" t="s">
+      <c r="Q344" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="R344" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S344" s="10" t="s">
+      <c r="R344" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S344" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -25754,7 +25737,7 @@
       <c r="I354" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J354" s="9" t="s">
+      <c r="J354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K354" s="7" t="s">
@@ -27761,7 +27744,7 @@
       <c r="L390" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M390" s="9" t="s">
+      <c r="M390" s="4" t="s">
         <v>22</v>
       </c>
       <c r="N390" s="7" t="s">
@@ -31313,7 +31296,7 @@
       <c r="I455" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J455" s="9" t="s">
+      <c r="J455" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K455" s="7" t="s">
@@ -31372,7 +31355,7 @@
       <c r="I456" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J456" s="9" t="s">
+      <c r="J456" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K456" s="7" t="s">
@@ -31431,7 +31414,7 @@
       <c r="I457" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J457" s="9" t="s">
+      <c r="J457" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K457" s="7" t="s">
@@ -31490,7 +31473,7 @@
       <c r="I458" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J458" s="9" t="s">
+      <c r="J458" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K458" s="7" t="s">
@@ -31549,7 +31532,7 @@
       <c r="I459" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J459" s="9" t="s">
+      <c r="J459" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K459" s="7" t="s">
@@ -31608,7 +31591,7 @@
       <c r="I460" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J460" s="9" t="s">
+      <c r="J460" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K460" s="7" t="s">
@@ -31667,7 +31650,7 @@
       <c r="I461" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="J461" s="9" t="s">
+      <c r="J461" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K461" s="7" t="s">
@@ -31726,7 +31709,7 @@
       <c r="I462" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="J462" s="9" t="s">
+      <c r="J462" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K462" s="7" t="s">
@@ -31785,7 +31768,7 @@
       <c r="I463" s="4" t="n">
         <v>1991</v>
       </c>
-      <c r="J463" s="9" t="s">
+      <c r="J463" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K463" s="7" t="s">
@@ -31844,7 +31827,7 @@
       <c r="I464" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="J464" s="9" t="s">
+      <c r="J464" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K464" s="7" t="s">
@@ -31903,7 +31886,7 @@
       <c r="I465" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="J465" s="9" t="s">
+      <c r="J465" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K465" s="7" t="s">
@@ -31962,7 +31945,7 @@
       <c r="I466" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="J466" s="9" t="s">
+      <c r="J466" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K466" s="7" t="s">
@@ -32335,34 +32318,34 @@
       <c r="I473" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J473" s="10" t="s">
+      <c r="J473" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="K473" s="10" t="s">
+      <c r="K473" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="L473" s="10" t="s">
+      <c r="L473" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M473" s="10" t="s">
+      <c r="M473" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N473" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O473" s="10" t="s">
+      <c r="N473" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O473" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P473" s="10" t="s">
+      <c r="P473" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="Q473" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R473" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S473" s="10" t="s">
+      <c r="Q473" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R473" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S473" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32394,34 +32377,34 @@
       <c r="I474" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J474" s="10" t="s">
+      <c r="J474" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="K474" s="10" t="s">
+      <c r="K474" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="L474" s="10" t="s">
+      <c r="L474" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M474" s="10" t="s">
+      <c r="M474" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N474" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O474" s="10" t="s">
+      <c r="N474" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O474" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P474" s="10" t="s">
+      <c r="P474" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="Q474" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R474" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S474" s="10" t="s">
+      <c r="Q474" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R474" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S474" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32453,34 +32436,34 @@
       <c r="I475" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J475" s="10" t="s">
+      <c r="J475" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="K475" s="10" t="s">
+      <c r="K475" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="L475" s="10" t="s">
+      <c r="L475" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="M475" s="10" t="s">
+      <c r="M475" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N475" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O475" s="10" t="s">
+      <c r="N475" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O475" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P475" s="10" t="s">
+      <c r="P475" s="8" t="s">
         <v>1010</v>
       </c>
-      <c r="Q475" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R475" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S475" s="10" t="s">
+      <c r="Q475" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R475" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S475" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -32555,7 +32538,7 @@
       <c r="I477" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J477" s="9" t="s">
+      <c r="J477" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K477" s="7" t="s">
@@ -32614,7 +32597,7 @@
       <c r="I478" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J478" s="9" t="s">
+      <c r="J478" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K478" s="7" t="s">
@@ -32673,7 +32656,7 @@
       <c r="I479" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="J479" s="9" t="s">
+      <c r="J479" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K479" s="7" t="s">
@@ -32732,7 +32715,7 @@
       <c r="I480" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="J480" s="9" t="s">
+      <c r="J480" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K480" s="7" t="s">
@@ -32791,7 +32774,7 @@
       <c r="I481" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="J481" s="9" t="s">
+      <c r="J481" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K481" s="7" t="s">
@@ -32850,7 +32833,7 @@
       <c r="I482" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="J482" s="9" t="s">
+      <c r="J482" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K482" s="7" t="s">
@@ -32909,7 +32892,7 @@
       <c r="I483" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="J483" s="9" t="s">
+      <c r="J483" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K483" s="7" t="s">
@@ -32968,7 +32951,7 @@
       <c r="I484" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J484" s="9" t="s">
+      <c r="J484" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K484" s="7" t="s">
@@ -33027,7 +33010,7 @@
       <c r="I485" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="J485" s="9" t="s">
+      <c r="J485" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K485" s="7" t="s">
@@ -33086,7 +33069,7 @@
       <c r="I486" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="J486" s="9" t="s">
+      <c r="J486" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K486" s="7" t="s">
@@ -33145,7 +33128,7 @@
       <c r="I487" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J487" s="9" t="s">
+      <c r="J487" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K487" s="7" t="s">
@@ -36089,18 +36072,18 @@
       <c r="I541" s="4" t="n">
         <v>1994</v>
       </c>
-      <c r="J541" s="10"/>
-      <c r="K541" s="10"/>
-      <c r="L541" s="10"/>
-      <c r="M541" s="10"/>
-      <c r="N541" s="10"/>
-      <c r="O541" s="10"/>
-      <c r="P541" s="10"/>
-      <c r="Q541" s="10"/>
-      <c r="R541" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S541" s="10" t="s">
+      <c r="J541" s="8"/>
+      <c r="K541" s="8"/>
+      <c r="L541" s="8"/>
+      <c r="M541" s="8"/>
+      <c r="N541" s="8"/>
+      <c r="O541" s="8"/>
+      <c r="P541" s="8"/>
+      <c r="Q541" s="8"/>
+      <c r="R541" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S541" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -37980,7 +37963,7 @@
       <c r="I580" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J580" s="9" t="s">
+      <c r="J580" s="4" t="s">
         <v>493</v>
       </c>
       <c r="K580" s="7" t="s">
@@ -40690,7 +40673,7 @@
       <c r="I626" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="J626" s="9" t="s">
+      <c r="J626" s="4" t="s">
         <v>349</v>
       </c>
       <c r="K626" s="7" t="s">
@@ -40835,18 +40818,18 @@
       <c r="I629" s="4" t="n">
         <v>1998</v>
       </c>
-      <c r="J629" s="10"/>
-      <c r="K629" s="10"/>
-      <c r="L629" s="10"/>
-      <c r="M629" s="10"/>
-      <c r="N629" s="10"/>
-      <c r="O629" s="10"/>
-      <c r="P629" s="10"/>
-      <c r="Q629" s="10"/>
-      <c r="R629" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S629" s="10" t="s">
+      <c r="J629" s="8"/>
+      <c r="K629" s="8"/>
+      <c r="L629" s="8"/>
+      <c r="M629" s="8"/>
+      <c r="N629" s="8"/>
+      <c r="O629" s="8"/>
+      <c r="P629" s="8"/>
+      <c r="Q629" s="8"/>
+      <c r="R629" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S629" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -41581,7 +41564,7 @@
       <c r="I643" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J643" s="9" t="s">
+      <c r="J643" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K643" s="7" t="s">
@@ -41640,7 +41623,7 @@
       <c r="I644" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J644" s="9" t="s">
+      <c r="J644" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K644" s="7" t="s">
@@ -41699,7 +41682,7 @@
       <c r="I645" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J645" s="9" t="s">
+      <c r="J645" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K645" s="7" t="s">
@@ -41758,7 +41741,7 @@
       <c r="I646" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J646" s="9" t="s">
+      <c r="J646" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K646" s="7" t="s">
@@ -41817,7 +41800,7 @@
       <c r="I647" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="J647" s="9" t="s">
+      <c r="J647" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K647" s="7" t="s">
@@ -41876,7 +41859,7 @@
       <c r="I648" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="J648" s="9" t="s">
+      <c r="J648" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K648" s="7" t="s">
@@ -41935,7 +41918,7 @@
       <c r="I649" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J649" s="9" t="s">
+      <c r="J649" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K649" s="7" t="s">
@@ -41994,7 +41977,7 @@
       <c r="I650" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J650" s="9" t="s">
+      <c r="J650" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K650" s="7" t="s">
@@ -42053,7 +42036,7 @@
       <c r="I651" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J651" s="9" t="s">
+      <c r="J651" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K651" s="7" t="s">
@@ -42230,7 +42213,7 @@
       <c r="I654" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="J654" s="9" t="s">
+      <c r="J654" s="4" t="s">
         <v>349</v>
       </c>
       <c r="K654" s="7" t="s">
@@ -42405,32 +42388,32 @@
       <c r="I657" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="J657" s="10" t="s">
+      <c r="J657" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K657" s="10" t="s">
+      <c r="K657" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="L657" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M657" s="10"/>
-      <c r="N657" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O657" s="10" t="s">
+      <c r="L657" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M657" s="8"/>
+      <c r="N657" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O657" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="P657" s="11" t="s">
+      <c r="P657" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q657" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R657" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S657" s="10" t="s">
+      <c r="Q657" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R657" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S657" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -42462,32 +42445,32 @@
       <c r="I658" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="J658" s="10" t="s">
+      <c r="J658" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K658" s="10" t="s">
+      <c r="K658" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="L658" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M658" s="10"/>
-      <c r="N658" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O658" s="10" t="s">
+      <c r="L658" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M658" s="8"/>
+      <c r="N658" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O658" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P658" s="11" t="s">
+      <c r="P658" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q658" s="10" t="s">
+      <c r="Q658" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="R658" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S658" s="10" t="s">
+      <c r="R658" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S658" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -42519,32 +42502,32 @@
       <c r="I659" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="J659" s="10" t="s">
+      <c r="J659" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K659" s="10" t="s">
+      <c r="K659" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="L659" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M659" s="10"/>
-      <c r="N659" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O659" s="10" t="s">
+      <c r="L659" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M659" s="8"/>
+      <c r="N659" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O659" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="P659" s="11" t="s">
+      <c r="P659" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q659" s="10" t="s">
+      <c r="Q659" s="8" t="s">
         <v>1236</v>
       </c>
-      <c r="R659" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S659" s="10" t="s">
+      <c r="R659" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S659" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -42576,32 +42559,32 @@
       <c r="I660" s="4" t="n">
         <v>2002</v>
       </c>
-      <c r="J660" s="10" t="s">
+      <c r="J660" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="K660" s="10" t="s">
+      <c r="K660" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="L660" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M660" s="10"/>
-      <c r="N660" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O660" s="10" t="s">
+      <c r="L660" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M660" s="8"/>
+      <c r="N660" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O660" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="P660" s="11" t="s">
+      <c r="P660" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="Q660" s="10" t="s">
+      <c r="Q660" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="R660" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S660" s="10" t="s">
+      <c r="R660" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S660" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -50004,7 +49987,7 @@
       <c r="I790" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="J790" s="9" t="s">
+      <c r="J790" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K790" s="7" t="s">
@@ -50063,7 +50046,7 @@
       <c r="I791" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="J791" s="9" t="s">
+      <c r="J791" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K791" s="7" t="s">
@@ -50122,7 +50105,7 @@
       <c r="I792" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="J792" s="9" t="s">
+      <c r="J792" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K792" s="7" t="s">
@@ -50181,7 +50164,7 @@
       <c r="I793" s="4" t="n">
         <v>1994</v>
       </c>
-      <c r="J793" s="9" t="s">
+      <c r="J793" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K793" s="7" t="s">
@@ -51222,7 +51205,7 @@
       <c r="N811" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O811" s="9" t="s">
+      <c r="O811" s="4" t="s">
         <v>1470</v>
       </c>
       <c r="P811" s="7" t="s">
@@ -51279,7 +51262,7 @@
       <c r="N812" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O812" s="9" t="s">
+      <c r="O812" s="4" t="s">
         <v>1470</v>
       </c>
       <c r="P812" s="7" t="s">
@@ -52597,7 +52580,7 @@
       <c r="M839" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N839" s="9" t="s">
+      <c r="N839" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O839" s="7" t="s">
@@ -52746,34 +52729,34 @@
       <c r="I842" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="J842" s="10" t="s">
+      <c r="J842" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="K842" s="10" t="s">
+      <c r="K842" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="L842" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M842" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N842" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O842" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P842" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q842" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R842" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="S842" s="10" t="s">
+      <c r="L842" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M842" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N842" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O842" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P842" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q842" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R842" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S842" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -53391,7 +53374,7 @@
       <c r="M853" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N853" s="9" t="s">
+      <c r="N853" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O853" s="7" t="s">
@@ -53450,7 +53433,7 @@
       <c r="M854" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N854" s="9" t="s">
+      <c r="N854" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O854" s="7" t="s">
@@ -53509,7 +53492,7 @@
       <c r="M855" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N855" s="9" t="s">
+      <c r="N855" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O855" s="7" t="s">
@@ -53568,7 +53551,7 @@
       <c r="M856" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N856" s="9" t="s">
+      <c r="N856" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O856" s="7" t="s">
@@ -53891,7 +53874,7 @@
       <c r="L862" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="M862" s="9" t="s">
+      <c r="M862" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N862" s="7" t="s">
@@ -53950,7 +53933,7 @@
       <c r="L863" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="M863" s="9" t="s">
+      <c r="M863" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N863" s="7" t="s">
@@ -54824,7 +54807,7 @@
       <c r="N879" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O879" s="9" t="s">
+      <c r="O879" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="P879" s="7" t="s">
@@ -60824,7 +60807,7 @@
         <v>1839</v>
       </c>
       <c r="B983" s="2" t="n">
-        <v>0</v>
+        <v>51513</v>
       </c>
       <c r="C983" s="2" t="s">
         <v>282</v>
@@ -61056,13 +61039,13 @@
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="13" t="s">
+      <c r="A987" s="11" t="s">
         <v>489</v>
       </c>
       <c r="B987" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C987" s="14" t="s">
+      <c r="C987" s="12" t="s">
         <v>446</v>
       </c>
       <c r="D987" s="3" t="s">
@@ -61115,13 +61098,13 @@
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="13" t="s">
-        <v>1861</v>
+      <c r="A988" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B988" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C988" s="14" t="s">
+      <c r="C988" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D988" s="3" t="s">
@@ -61146,7 +61129,7 @@
         <v>569</v>
       </c>
       <c r="K988" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="L988" s="4" t="s">
         <v>1777</v>
@@ -61174,13 +61157,13 @@
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="13" t="s">
-        <v>1861</v>
+      <c r="A989" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B989" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C989" s="14" t="s">
+      <c r="C989" s="12" t="s">
         <v>446</v>
       </c>
       <c r="D989" s="3" t="s">
@@ -61233,13 +61216,13 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="13" t="s">
-        <v>1861</v>
+      <c r="A990" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B990" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C990" s="14" t="s">
+      <c r="C990" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D990" s="3" t="s">
@@ -61264,10 +61247,10 @@
         <v>569</v>
       </c>
       <c r="K990" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L990" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L990" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M990" s="4" t="s">
         <v>36</v>
@@ -61292,13 +61275,13 @@
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="13" t="s">
-        <v>1861</v>
+      <c r="A991" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="B991" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C991" s="14" t="s">
+      <c r="C991" s="12" t="s">
         <v>1199</v>
       </c>
       <c r="D991" s="3" t="s">
@@ -61323,10 +61306,10 @@
         <v>569</v>
       </c>
       <c r="K991" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L991" s="4" t="s">
         <v>1865</v>
-      </c>
-      <c r="L991" s="4" t="s">
-        <v>1866</v>
       </c>
       <c r="M991" s="4" t="s">
         <v>36</v>
@@ -61351,13 +61334,13 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="13" t="s">
+      <c r="A992" s="11" t="s">
         <v>1422</v>
       </c>
       <c r="B992" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C992" s="14" t="s">
+      <c r="C992" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D992" s="3" t="s">
@@ -61382,10 +61365,10 @@
         <v>569</v>
       </c>
       <c r="K992" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L992" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L992" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M992" s="4" t="s">
         <v>36</v>
@@ -61410,13 +61393,13 @@
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="13" t="s">
-        <v>1867</v>
+      <c r="A993" s="11" t="s">
+        <v>1866</v>
       </c>
       <c r="B993" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C993" s="14" t="s">
+      <c r="C993" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D993" s="3" t="s">
@@ -61441,10 +61424,10 @@
         <v>569</v>
       </c>
       <c r="K993" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L993" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L993" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M993" s="4" t="s">
         <v>36</v>
@@ -61469,13 +61452,13 @@
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="13" t="s">
-        <v>1867</v>
+      <c r="A994" s="11" t="s">
+        <v>1866</v>
       </c>
       <c r="B994" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C994" s="14" t="s">
+      <c r="C994" s="12" t="s">
         <v>1199</v>
       </c>
       <c r="D994" s="3" t="s">
@@ -61500,10 +61483,10 @@
         <v>569</v>
       </c>
       <c r="K994" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L994" s="4" t="s">
         <v>1865</v>
-      </c>
-      <c r="L994" s="4" t="s">
-        <v>1866</v>
       </c>
       <c r="M994" s="4" t="s">
         <v>36</v>
@@ -61528,13 +61511,13 @@
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="13" t="s">
-        <v>1867</v>
+      <c r="A995" s="11" t="s">
+        <v>1866</v>
       </c>
       <c r="B995" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C995" s="14" t="s">
+      <c r="C995" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D995" s="3" t="s">
@@ -61559,7 +61542,7 @@
         <v>569</v>
       </c>
       <c r="K995" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="L995" s="4" t="s">
         <v>1777</v>
@@ -61587,13 +61570,13 @@
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="13" t="s">
-        <v>1867</v>
+      <c r="A996" s="11" t="s">
+        <v>1866</v>
       </c>
       <c r="B996" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C996" s="14" t="s">
+      <c r="C996" s="12" t="s">
         <v>446</v>
       </c>
       <c r="D996" s="3" t="s">
@@ -61646,13 +61629,13 @@
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="13" t="s">
-        <v>1868</v>
+      <c r="A997" s="11" t="s">
+        <v>1867</v>
       </c>
       <c r="B997" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C997" s="14" t="s">
+      <c r="C997" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D997" s="3" t="s">
@@ -61677,10 +61660,10 @@
         <v>569</v>
       </c>
       <c r="K997" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L997" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L997" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M997" s="4" t="s">
         <v>36</v>
@@ -61705,13 +61688,13 @@
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="13" t="s">
+      <c r="A998" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B998" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C998" s="14" t="s">
+      <c r="C998" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D998" s="3" t="s">
@@ -61736,10 +61719,10 @@
         <v>569</v>
       </c>
       <c r="K998" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L998" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L998" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M998" s="4" t="s">
         <v>36</v>
@@ -61764,13 +61747,13 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="13" t="s">
+      <c r="A999" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B999" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C999" s="14" t="s">
+      <c r="C999" s="12" t="s">
         <v>1199</v>
       </c>
       <c r="D999" s="3" t="s">
@@ -61795,10 +61778,10 @@
         <v>569</v>
       </c>
       <c r="K999" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L999" s="4" t="s">
         <v>1865</v>
-      </c>
-      <c r="L999" s="4" t="s">
-        <v>1866</v>
       </c>
       <c r="M999" s="4" t="s">
         <v>36</v>
@@ -61823,13 +61806,13 @@
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="13" t="s">
+      <c r="A1000" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B1000" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1000" s="14" t="s">
+      <c r="C1000" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D1000" s="3" t="s">
@@ -61854,7 +61837,7 @@
         <v>569</v>
       </c>
       <c r="K1000" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="L1000" s="4" t="s">
         <v>1777</v>
@@ -61882,13 +61865,13 @@
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="13" t="s">
+      <c r="A1001" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B1001" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1001" s="14" t="s">
+      <c r="C1001" s="12" t="s">
         <v>446</v>
       </c>
       <c r="D1001" s="3" t="s">
@@ -61941,13 +61924,13 @@
       </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="13" t="s">
+      <c r="A1002" s="11" t="s">
         <v>538</v>
       </c>
       <c r="B1002" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1002" s="14" t="s">
+      <c r="C1002" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D1002" s="3" t="s">
@@ -61972,10 +61955,10 @@
         <v>569</v>
       </c>
       <c r="K1002" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L1002" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L1002" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M1002" s="4" t="s">
         <v>36</v>
@@ -62000,13 +61983,13 @@
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="13" t="s">
+      <c r="A1003" s="11" t="s">
         <v>970</v>
       </c>
       <c r="B1003" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1003" s="14" t="s">
+      <c r="C1003" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D1003" s="3" t="s">
@@ -62031,10 +62014,10 @@
         <v>569</v>
       </c>
       <c r="K1003" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="L1003" s="4" t="s">
         <v>1863</v>
-      </c>
-      <c r="L1003" s="4" t="s">
-        <v>1864</v>
       </c>
       <c r="M1003" s="4" t="s">
         <v>36</v>
@@ -62059,17 +62042,17 @@
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="13" t="s">
+      <c r="A1004" s="11" t="s">
         <v>1035</v>
       </c>
       <c r="B1004" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1004" s="14" t="s">
+      <c r="C1004" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1004" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E1004" s="4" t="s">
         <v>1617</v>
@@ -62078,10 +62061,10 @@
         <v>26</v>
       </c>
       <c r="G1004" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H1004" s="4" t="s">
         <v>1870</v>
-      </c>
-      <c r="H1004" s="4" t="s">
-        <v>1871</v>
       </c>
       <c r="I1004" s="4" t="n">
         <v>2006</v>
@@ -62090,7 +62073,7 @@
         <v>569</v>
       </c>
       <c r="K1004" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="L1004" s="4" t="s">
         <v>346</v>
@@ -62128,7 +62111,7 @@
         <v>889</v>
       </c>
       <c r="D1005" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E1005" s="4" t="s">
         <v>22</v>
@@ -62146,10 +62129,10 @@
         <v>2012</v>
       </c>
       <c r="J1005" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K1005" s="4" t="s">
         <v>1874</v>
-      </c>
-      <c r="K1005" s="4" t="s">
-        <v>1875</v>
       </c>
       <c r="L1005" s="4" t="s">
         <v>346</v>
@@ -62164,7 +62147,7 @@
         <v>57</v>
       </c>
       <c r="P1005" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q1005" s="4" t="s">
         <v>43</v>
@@ -62187,7 +62170,7 @@
         <v>672</v>
       </c>
       <c r="D1006" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E1006" s="4" t="s">
         <v>22</v>
@@ -62208,7 +62191,7 @@
         <v>692</v>
       </c>
       <c r="K1006" s="4" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="L1006" s="4" t="s">
         <v>1823</v>
@@ -62236,17 +62219,17 @@
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="13" t="s">
+      <c r="A1007" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B1007" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1007" s="14" t="s">
+      <c r="C1007" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1007" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E1007" s="4" t="s">
         <v>1617</v>
@@ -62264,7 +62247,7 @@
         <v>2001</v>
       </c>
       <c r="J1007" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K1007" s="4" t="s">
         <v>990</v>
@@ -62295,17 +62278,17 @@
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="13" t="s">
+      <c r="A1008" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B1008" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1008" s="14" t="s">
+      <c r="C1008" s="12" t="s">
         <v>1154</v>
       </c>
       <c r="D1008" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E1008" s="4" t="s">
         <v>1617</v>
@@ -62354,17 +62337,17 @@
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="13" t="s">
+      <c r="A1009" s="11" t="s">
         <v>335</v>
       </c>
       <c r="B1009" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1009" s="14" t="s">
+      <c r="C1009" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1009" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E1009" s="4" t="s">
         <v>1617</v>
@@ -62382,7 +62365,7 @@
         <v>2001</v>
       </c>
       <c r="J1009" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K1009" s="4" t="s">
         <v>990</v>
@@ -62413,17 +62396,17 @@
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="13" t="s">
+      <c r="A1010" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1010" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1010" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1010" s="3" t="s">
         <v>1881</v>
-      </c>
-      <c r="B1010" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1010" s="14" t="s">
-        <v>887</v>
-      </c>
-      <c r="D1010" s="3" t="s">
-        <v>1882</v>
       </c>
       <c r="E1010" s="4" t="s">
         <v>22</v>
@@ -62441,7 +62424,7 @@
         <v>1986</v>
       </c>
       <c r="J1010" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="K1010" s="4" t="s">
         <v>23</v>
@@ -62472,17 +62455,17 @@
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="13" t="s">
-        <v>1884</v>
+      <c r="A1011" s="11" t="s">
+        <v>1883</v>
       </c>
       <c r="B1011" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1011" s="14" t="s">
+      <c r="C1011" s="12" t="s">
         <v>887</v>
       </c>
       <c r="D1011" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E1011" s="4" t="s">
         <v>22</v>
@@ -62500,7 +62483,7 @@
         <v>1986</v>
       </c>
       <c r="J1011" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="K1011" s="4" t="s">
         <v>23</v>
@@ -62531,17 +62514,17 @@
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="13" t="s">
+      <c r="A1012" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B1012" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1012" s="14" t="s">
+      <c r="C1012" s="12" t="s">
         <v>1371</v>
       </c>
       <c r="D1012" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1012" s="4" t="s">
         <v>22</v>
@@ -62559,13 +62542,13 @@
         <v>2016</v>
       </c>
       <c r="J1012" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K1012" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="K1012" s="1" t="s">
+      <c r="L1012" s="4" t="s">
         <v>1887</v>
-      </c>
-      <c r="L1012" s="4" t="s">
-        <v>1888</v>
       </c>
       <c r="M1012" s="4" t="s">
         <v>22</v>
@@ -62577,7 +62560,7 @@
         <v>2</v>
       </c>
       <c r="P1012" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q1012" s="4" t="s">
         <v>43</v>
@@ -62590,17 +62573,17 @@
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="13" t="s">
-        <v>1889</v>
+      <c r="A1013" s="11" t="s">
+        <v>1888</v>
       </c>
       <c r="B1013" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1013" s="14" t="s">
+      <c r="C1013" s="12" t="s">
         <v>1371</v>
       </c>
       <c r="D1013" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1013" s="4" t="s">
         <v>22</v>
@@ -62618,13 +62601,13 @@
         <v>2016</v>
       </c>
       <c r="J1013" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K1013" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="K1013" s="1" t="s">
+      <c r="L1013" s="4" t="s">
         <v>1887</v>
-      </c>
-      <c r="L1013" s="4" t="s">
-        <v>1888</v>
       </c>
       <c r="M1013" s="4" t="s">
         <v>22</v>
@@ -62636,7 +62619,7 @@
         <v>2</v>
       </c>
       <c r="P1013" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q1013" s="4" t="s">
         <v>43</v>
@@ -62649,17 +62632,17 @@
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="13" t="s">
+      <c r="A1014" s="11" t="s">
         <v>1000</v>
       </c>
       <c r="B1014" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1014" s="14" t="s">
+      <c r="C1014" s="12" t="s">
         <v>1371</v>
       </c>
       <c r="D1014" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1014" s="4" t="s">
         <v>22</v>
@@ -62677,13 +62660,13 @@
         <v>2016</v>
       </c>
       <c r="J1014" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K1014" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="K1014" s="1" t="s">
+      <c r="L1014" s="4" t="s">
         <v>1887</v>
-      </c>
-      <c r="L1014" s="4" t="s">
-        <v>1888</v>
       </c>
       <c r="M1014" s="4" t="s">
         <v>22</v>
@@ -62695,7 +62678,7 @@
         <v>2</v>
       </c>
       <c r="P1014" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q1014" s="4" t="s">
         <v>43</v>
@@ -62709,16 +62692,16 @@
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="5" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1015" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1015" s="14" t="s">
+      <c r="C1015" s="12" t="s">
         <v>1371</v>
       </c>
       <c r="D1015" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E1015" s="4" t="s">
         <v>22</v>
@@ -62736,13 +62719,13 @@
         <v>2016</v>
       </c>
       <c r="J1015" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="K1015" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="K1015" s="1" t="s">
+      <c r="L1015" s="4" t="s">
         <v>1887</v>
-      </c>
-      <c r="L1015" s="4" t="s">
-        <v>1888</v>
       </c>
       <c r="M1015" s="4" t="s">
         <v>22</v>
@@ -62754,7 +62737,7 @@
         <v>2</v>
       </c>
       <c r="P1015" s="4" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q1015" s="4" t="s">
         <v>43</v>
@@ -62767,17 +62750,17 @@
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="13" t="s">
+      <c r="A1016" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B1016" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1016" s="14" t="s">
+      <c r="C1016" s="12" t="s">
         <v>889</v>
       </c>
       <c r="D1016" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1016" s="4" t="s">
         <v>22</v>
@@ -62798,10 +62781,10 @@
         <v>569</v>
       </c>
       <c r="K1016" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="L1016" s="4" t="s">
         <v>1892</v>
-      </c>
-      <c r="L1016" s="4" t="s">
-        <v>1893</v>
       </c>
       <c r="M1016" s="4" t="s">
         <v>36</v>
@@ -62826,17 +62809,17 @@
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="13" t="s">
+      <c r="A1017" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B1017" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1017" s="14" t="s">
-        <v>1894</v>
+      <c r="C1017" s="12" t="s">
+        <v>1893</v>
       </c>
       <c r="D1017" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1017" s="4" t="s">
         <v>22</v>
@@ -62857,10 +62840,10 @@
         <v>569</v>
       </c>
       <c r="K1017" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L1017" s="4" t="s">
         <v>1895</v>
-      </c>
-      <c r="L1017" s="4" t="s">
-        <v>1896</v>
       </c>
       <c r="M1017" s="4" t="s">
         <v>36</v>
@@ -62885,17 +62868,17 @@
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="13" t="s">
+      <c r="A1018" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B1018" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1018" s="14" t="s">
+      <c r="C1018" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D1018" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1018" s="4" t="s">
         <v>22</v>
@@ -62916,7 +62899,7 @@
         <v>569</v>
       </c>
       <c r="K1018" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="L1018" s="4" t="s">
         <v>407</v>
@@ -62944,17 +62927,17 @@
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="13" t="s">
+      <c r="A1019" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B1019" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1019" s="14" t="s">
+      <c r="C1019" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D1019" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1019" s="4" t="s">
         <v>22</v>
@@ -62975,7 +62958,7 @@
         <v>569</v>
       </c>
       <c r="K1019" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="L1019" s="4" t="s">
         <v>605</v>
@@ -63003,17 +62986,17 @@
       </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="13" t="s">
+      <c r="A1020" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B1020" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1020" s="14" t="s">
+      <c r="C1020" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1020" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1020" s="4" t="s">
         <v>22</v>
@@ -63031,13 +63014,13 @@
         <v>2004</v>
       </c>
       <c r="J1020" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K1020" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="K1020" s="1" t="s">
-        <v>1900</v>
-      </c>
       <c r="L1020" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="M1020" s="4" t="s">
         <v>36</v>
@@ -63062,17 +63045,17 @@
       </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="13" t="s">
-        <v>1901</v>
+      <c r="A1021" s="11" t="s">
+        <v>1900</v>
       </c>
       <c r="B1021" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1021" s="14" t="s">
+      <c r="C1021" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1021" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1021" s="4" t="s">
         <v>22</v>
@@ -63090,13 +63073,13 @@
         <v>2004</v>
       </c>
       <c r="J1021" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K1021" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L1021" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="M1021" s="4" t="s">
         <v>36</v>
@@ -63121,17 +63104,17 @@
       </c>
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="13" t="s">
-        <v>1903</v>
+      <c r="A1022" s="11" t="s">
+        <v>1902</v>
       </c>
       <c r="B1022" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1022" s="14" t="s">
+      <c r="C1022" s="12" t="s">
         <v>990</v>
       </c>
       <c r="D1022" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1022" s="4" t="s">
         <v>22</v>
@@ -63149,19 +63132,19 @@
         <v>2004</v>
       </c>
       <c r="J1022" s="4" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="K1022" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="L1022" s="4" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="M1022" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N1022" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O1022" s="4" t="s">
         <v>23</v>
@@ -63180,53 +63163,53 @@
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="13" t="s">
+      <c r="A1023" s="11" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1023" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1023" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1023" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="B1023" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1023" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1023" s="3" t="s">
-        <v>1891</v>
-      </c>
       <c r="E1023" s="4" t="s">
-        <v>22</v>
+        <v>1905</v>
       </c>
       <c r="F1023" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1023" s="4" t="s">
-        <v>23</v>
+        <v>1906</v>
       </c>
       <c r="H1023" s="4" t="s">
-        <v>23</v>
+        <v>1907</v>
       </c>
       <c r="I1023" s="4" t="n">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="J1023" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K1023" s="1" t="s">
-        <v>1900</v>
+        <v>1908</v>
+      </c>
+      <c r="K1023" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L1023" s="4" t="s">
-        <v>1896</v>
+        <v>23</v>
       </c>
       <c r="M1023" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N1023" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O1023" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P1023" s="4" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="Q1023" s="4" t="s">
         <v>23</v>
@@ -63235,57 +63218,57 @@
         <v>26</v>
       </c>
       <c r="S1023" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="13" t="s">
+      <c r="A1024" s="11" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1024" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1024" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1024" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E1024" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="B1024" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1024" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1024" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E1024" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F1024" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1024" s="4" t="s">
-        <v>23</v>
+        <v>1910</v>
       </c>
       <c r="H1024" s="4" t="s">
-        <v>23</v>
+        <v>1911</v>
       </c>
       <c r="I1024" s="4" t="n">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="J1024" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K1024" s="1" t="s">
-        <v>1900</v>
+        <v>1908</v>
+      </c>
+      <c r="K1024" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L1024" s="4" t="s">
-        <v>1896</v>
+        <v>23</v>
       </c>
       <c r="M1024" s="4" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N1024" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O1024" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P1024" s="4" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="Q1024" s="4" t="s">
         <v>23</v>
@@ -63294,39 +63277,39 @@
         <v>26</v>
       </c>
       <c r="S1024" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="13" t="s">
-        <v>1906</v>
+      <c r="A1025" s="5" t="s">
+        <v>1912</v>
       </c>
       <c r="B1025" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1025" s="14" t="s">
+      <c r="C1025" s="12" t="s">
         <v>926</v>
       </c>
       <c r="D1025" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1025" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F1025" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1025" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1025" s="4" t="s">
-        <v>1909</v>
+      <c r="G1025" s="2" t="s">
+        <v>1913</v>
       </c>
       <c r="H1025" s="4" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="I1025" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="J1025" s="4" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="K1025" s="4" t="s">
         <v>23</v>
@@ -63357,35 +63340,35 @@
       </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1026" s="13" t="s">
-        <v>1912</v>
+      <c r="A1026" s="11" t="s">
+        <v>1903</v>
       </c>
       <c r="B1026" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1026" s="14" t="s">
-        <v>926</v>
+      <c r="C1026" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="D1026" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1026" s="4" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="F1026" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1026" s="4" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="H1026" s="4" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="I1026" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="J1026" s="4" t="s">
-        <v>1911</v>
+        <v>569</v>
       </c>
       <c r="K1026" s="4" t="s">
         <v>23</v>
@@ -63409,42 +63392,42 @@
         <v>23</v>
       </c>
       <c r="R1026" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1026" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1027" s="5" t="s">
-        <v>1915</v>
+      <c r="A1027" s="11" t="s">
+        <v>1909</v>
       </c>
       <c r="B1027" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1027" s="14" t="s">
-        <v>926</v>
+      <c r="C1027" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="D1027" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1027" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F1027" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1027" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1027" s="2" t="s">
-        <v>1916</v>
+      <c r="G1027" s="4" t="s">
+        <v>1910</v>
       </c>
       <c r="H1027" s="4" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="I1027" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="J1027" s="4" t="s">
-        <v>1911</v>
+        <v>569</v>
       </c>
       <c r="K1027" s="4" t="s">
         <v>23</v>
@@ -63468,36 +63451,36 @@
         <v>23</v>
       </c>
       <c r="R1027" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1027" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="13" t="s">
-        <v>1906</v>
+      <c r="A1028" s="5" t="s">
+        <v>1912</v>
       </c>
       <c r="B1028" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1028" s="14" t="s">
+      <c r="C1028" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D1028" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1028" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F1028" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1028" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1028" s="4" t="s">
-        <v>1909</v>
+      <c r="G1028" s="2" t="s">
+        <v>1913</v>
       </c>
       <c r="H1028" s="4" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="I1028" s="4" t="n">
         <v>2018</v>
@@ -63534,29 +63517,29 @@
       </c>
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="13" t="s">
-        <v>1912</v>
+      <c r="A1029" s="11" t="s">
+        <v>1915</v>
       </c>
       <c r="B1029" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1029" s="14" t="s">
-        <v>512</v>
+      <c r="C1029" s="12" t="s">
+        <v>926</v>
       </c>
       <c r="D1029" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1029" s="4" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="F1029" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1029" s="4" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="H1029" s="4" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="I1029" s="4" t="n">
         <v>2018</v>
@@ -63593,25 +63576,25 @@
       </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="5" t="s">
+      <c r="A1030" s="11" t="s">
         <v>1915</v>
       </c>
       <c r="B1030" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1030" s="14" t="s">
+      <c r="C1030" s="12" t="s">
         <v>512</v>
       </c>
       <c r="D1030" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="E1030" s="4" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F1030" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1030" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1030" s="2" t="s">
+      <c r="G1030" s="4" t="s">
         <v>1916</v>
       </c>
       <c r="H1030" s="4" t="s">
@@ -63652,47 +63635,47 @@
       </c>
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="13" t="s">
+      <c r="A1031" s="1" t="s">
         <v>1918</v>
       </c>
       <c r="B1031" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1031" s="14" t="s">
-        <v>926</v>
+        <v>175245</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D1031" s="3" t="s">
-        <v>1907</v>
+        <v>1919</v>
       </c>
       <c r="E1031" s="4" t="s">
-        <v>1908</v>
+        <v>22</v>
       </c>
       <c r="F1031" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1031" s="4" t="s">
-        <v>1919</v>
+        <v>23</v>
       </c>
       <c r="H1031" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1031" s="4" t="n">
+        <v>1997</v>
+      </c>
+      <c r="J1031" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="I1031" s="4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J1031" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="K1031" s="4" t="s">
-        <v>23</v>
+      <c r="K1031" s="1" t="s">
+        <v>1921</v>
       </c>
       <c r="L1031" s="4" t="s">
-        <v>23</v>
+        <v>1922</v>
       </c>
       <c r="M1031" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N1031" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1031" s="4" t="s">
         <v>23</v>
@@ -63707,51 +63690,51 @@
         <v>22</v>
       </c>
       <c r="S1031" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="13" t="s">
-        <v>1918</v>
+      <c r="A1032" s="1" t="s">
+        <v>1923</v>
       </c>
       <c r="B1032" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C1032" s="14" t="s">
-        <v>512</v>
+      <c r="C1032" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="D1032" s="3" t="s">
-        <v>1907</v>
+        <v>1924</v>
       </c>
       <c r="E1032" s="4" t="s">
-        <v>1908</v>
+        <v>1617</v>
       </c>
       <c r="F1032" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G1032" s="4" t="s">
-        <v>1919</v>
+        <v>1925</v>
       </c>
       <c r="H1032" s="4" t="s">
-        <v>1920</v>
+        <v>1926</v>
       </c>
       <c r="I1032" s="4" t="n">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="J1032" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="K1032" s="4" t="s">
-        <v>23</v>
+        <v>1770</v>
+      </c>
+      <c r="K1032" s="1" t="s">
+        <v>1927</v>
       </c>
       <c r="L1032" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M1032" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1032" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1032" s="4" t="s">
         <v>23</v>
@@ -63763,27 +63746,27 @@
         <v>23</v>
       </c>
       <c r="R1032" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S1032" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="B1033" s="2" t="n">
-        <v>175245</v>
+        <v>0</v>
       </c>
       <c r="C1033" s="2" t="s">
-        <v>282</v>
+        <v>990</v>
       </c>
       <c r="D1033" s="3" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="E1033" s="4" t="s">
-        <v>22</v>
+        <v>1617</v>
       </c>
       <c r="F1033" s="4" t="s">
         <v>22</v>
@@ -63795,72 +63778,72 @@
         <v>23</v>
       </c>
       <c r="I1033" s="4" t="n">
-        <v>1997</v>
+        <v>2015</v>
       </c>
       <c r="J1033" s="4" t="s">
-        <v>1923</v>
+        <v>349</v>
       </c>
       <c r="K1033" s="1" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="L1033" s="4" t="s">
-        <v>1925</v>
+        <v>1931</v>
       </c>
       <c r="M1033" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N1033" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O1033" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="P1033" s="4" t="s">
-        <v>23</v>
+        <v>1756</v>
       </c>
       <c r="Q1033" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="R1033" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S1033" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B1034" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1034" s="2" t="s">
-        <v>990</v>
+        <v>1154</v>
       </c>
       <c r="D1034" s="3" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E1034" s="4" t="s">
         <v>1617</v>
       </c>
       <c r="F1034" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1034" s="4" t="s">
-        <v>1928</v>
+        <v>23</v>
       </c>
       <c r="H1034" s="4" t="s">
-        <v>1929</v>
+        <v>23</v>
       </c>
       <c r="I1034" s="4" t="n">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="J1034" s="4" t="s">
-        <v>1770</v>
-      </c>
-      <c r="K1034" s="1" t="s">
-        <v>1930</v>
+        <v>349</v>
+      </c>
+      <c r="K1034" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L1034" s="4" t="s">
         <v>23</v>
@@ -63872,24 +63855,24 @@
         <v>22</v>
       </c>
       <c r="O1034" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="P1034" s="4" t="s">
-        <v>23</v>
+        <v>1756</v>
       </c>
       <c r="Q1034" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="R1034" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1034" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="S1034" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1035" s="2" t="n">
         <v>0</v>
@@ -63898,10 +63881,10 @@
         <v>990</v>
       </c>
       <c r="D1035" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="E1035" s="4" t="s">
-        <v>1617</v>
+        <v>22</v>
       </c>
       <c r="F1035" s="4" t="s">
         <v>22</v>
@@ -63913,16 +63896,16 @@
         <v>23</v>
       </c>
       <c r="I1035" s="4" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="J1035" s="4" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="K1035" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="L1035" s="4" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="M1035" s="4" t="s">
         <v>26</v>
@@ -63931,36 +63914,36 @@
         <v>22</v>
       </c>
       <c r="O1035" s="4" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="P1035" s="4" t="s">
-        <v>1756</v>
+        <v>197</v>
       </c>
       <c r="Q1035" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="R1035" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S1035" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1" t="s">
-        <v>1931</v>
+        <v>1099</v>
       </c>
       <c r="B1036" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C1036" s="2" t="s">
-        <v>1154</v>
+        <v>990</v>
       </c>
       <c r="D1036" s="3" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="E1036" s="4" t="s">
-        <v>1617</v>
+        <v>22</v>
       </c>
       <c r="F1036" s="4" t="s">
         <v>22</v>
@@ -63972,16 +63955,16 @@
         <v>23</v>
       </c>
       <c r="I1036" s="4" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="J1036" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="K1036" s="4" t="s">
-        <v>23</v>
+        <v>161</v>
+      </c>
+      <c r="K1036" s="1" t="s">
+        <v>1934</v>
       </c>
       <c r="L1036" s="4" t="s">
-        <v>23</v>
+        <v>1935</v>
       </c>
       <c r="M1036" s="4" t="s">
         <v>26</v>
@@ -63990,24 +63973,24 @@
         <v>22</v>
       </c>
       <c r="O1036" s="4" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="P1036" s="4" t="s">
-        <v>1756</v>
+        <v>197</v>
       </c>
       <c r="Q1036" s="4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="R1036" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S1036" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="1" t="s">
-        <v>1935</v>
+        <v>963</v>
       </c>
       <c r="B1037" s="2" t="n">
         <v>0</v>
@@ -64016,7 +63999,7 @@
         <v>990</v>
       </c>
       <c r="D1037" s="3" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E1037" s="4" t="s">
         <v>22</v>
@@ -64037,10 +64020,10 @@
         <v>161</v>
       </c>
       <c r="K1037" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="L1037" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M1037" s="4" t="s">
         <v>26</v>
@@ -64058,7 +64041,7 @@
         <v>23</v>
       </c>
       <c r="R1037" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S1037" s="4" t="s">
         <v>22</v>
@@ -64066,7 +64049,7 @@
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="1" t="s">
-        <v>1099</v>
+        <v>1023</v>
       </c>
       <c r="B1038" s="2" t="n">
         <v>0</v>
@@ -64075,7 +64058,7 @@
         <v>990</v>
       </c>
       <c r="D1038" s="3" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E1038" s="4" t="s">
         <v>22</v>
@@ -64096,10 +64079,10 @@
         <v>161</v>
       </c>
       <c r="K1038" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="L1038" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M1038" s="4" t="s">
         <v>26</v>
@@ -64123,18 +64106,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="B1039" s="2" t="n">
+    <row r="1039" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1039" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C1039" s="2" t="s">
         <v>990</v>
       </c>
       <c r="D1039" s="3" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E1039" s="4" t="s">
         <v>22</v>
@@ -64155,10 +64138,10 @@
         <v>161</v>
       </c>
       <c r="K1039" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="L1039" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M1039" s="4" t="s">
         <v>26</v>
@@ -64184,7 +64167,7 @@
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="1" t="s">
-        <v>1023</v>
+        <v>760</v>
       </c>
       <c r="B1040" s="2" t="n">
         <v>0</v>
@@ -64193,7 +64176,7 @@
         <v>990</v>
       </c>
       <c r="D1040" s="3" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E1040" s="4" t="s">
         <v>22</v>
@@ -64214,10 +64197,10 @@
         <v>161</v>
       </c>
       <c r="K1040" s="1" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="L1040" s="4" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="M1040" s="4" t="s">
         <v>26</v>
@@ -64241,132 +64224,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1041" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1041" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1041" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1041" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1041" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E1041" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1041" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1041" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1041" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1041" s="4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J1041" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1041" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="L1041" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="M1041" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1041" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1041" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1041" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1041" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1041" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1041" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1042" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1042" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1042" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1042" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E1042" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1042" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1042" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1042" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1042" s="4" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J1042" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1042" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="L1042" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="M1042" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1042" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1042" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1042" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1042" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1042" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1042" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="2"/>
-      <c r="D1046" s="5"/>
-      <c r="E1046" s="2"/>
-      <c r="F1046" s="2"/>
-      <c r="G1046" s="2"/>
-      <c r="K1046" s="4"/>
-    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="2"/>
+      <c r="D1044" s="5"/>
+      <c r="E1044" s="2"/>
+      <c r="F1044" s="2"/>
+      <c r="G1044" s="2"/>
+      <c r="K1044" s="4"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
